--- a/natmiOut/OldD4/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H2">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I2">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J2">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>38.79739314060603</v>
+        <v>119.9164826377209</v>
       </c>
       <c r="R2">
-        <v>38.79739314060603</v>
+        <v>1079.248343739488</v>
       </c>
       <c r="S2">
-        <v>0.0002595060754574698</v>
+        <v>0.0006602952094326145</v>
       </c>
       <c r="T2">
-        <v>0.0002595060754574698</v>
+        <v>0.0007287666585589958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H3">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I3">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J3">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>43.45180008786047</v>
+        <v>128.3279088596133</v>
       </c>
       <c r="R3">
-        <v>43.45180008786047</v>
+        <v>1154.95117973652</v>
       </c>
       <c r="S3">
-        <v>0.000290638241376108</v>
+        <v>0.00070661098118178</v>
       </c>
       <c r="T3">
-        <v>0.000290638241376108</v>
+        <v>0.0007798852941844525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H4">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I4">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J4">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>22.35477620789452</v>
+        <v>64.43763540636623</v>
       </c>
       <c r="R4">
-        <v>22.35477620789452</v>
+        <v>579.938718657296</v>
       </c>
       <c r="S4">
-        <v>0.0001495255163257113</v>
+        <v>0.0003548124580549129</v>
       </c>
       <c r="T4">
-        <v>0.0001495255163257113</v>
+        <v>0.0003916058844255045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H5">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I5">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J5">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>26.59589748068494</v>
+        <v>73.62042214733647</v>
       </c>
       <c r="R5">
-        <v>26.59589748068494</v>
+        <v>662.5837993260282</v>
       </c>
       <c r="S5">
-        <v>0.0001778933175605094</v>
+        <v>0.0004053755663193701</v>
       </c>
       <c r="T5">
-        <v>0.0001778933175605094</v>
+        <v>0.0004474122978748902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H6">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I6">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J6">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>52.48020021863889</v>
+        <v>146.843654683478</v>
       </c>
       <c r="R6">
-        <v>52.48020021863889</v>
+        <v>881.061928100868</v>
       </c>
       <c r="S6">
-        <v>0.0003510269555638628</v>
+        <v>0.0008085640905262666</v>
       </c>
       <c r="T6">
-        <v>0.0003510269555638628</v>
+        <v>0.0005949405074839799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H7">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I7">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J7">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>8886.383806077823</v>
+        <v>56.74441721971823</v>
       </c>
       <c r="R7">
-        <v>8886.383806077823</v>
+        <v>510.699754977464</v>
       </c>
       <c r="S7">
-        <v>0.05943880245166513</v>
+        <v>0.0003124513497066128</v>
       </c>
       <c r="T7">
-        <v>0.05943880245166513</v>
+        <v>0.0003448520038235634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H8">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I8">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J8">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>9952.456631462812</v>
+        <v>60.72469973342333</v>
       </c>
       <c r="R8">
-        <v>9952.456631462812</v>
+        <v>546.5222976008099</v>
       </c>
       <c r="S8">
-        <v>0.06656949739461905</v>
+        <v>0.000334367948811073</v>
       </c>
       <c r="T8">
-        <v>0.06656949739461905</v>
+        <v>0.0003690413156164797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H9">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I9">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J9">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>5120.269822314786</v>
+        <v>30.49185556248755</v>
       </c>
       <c r="R9">
-        <v>5120.269822314786</v>
+        <v>274.426700062388</v>
       </c>
       <c r="S9">
-        <v>0.03424820636934863</v>
+        <v>0.00016789707062579</v>
       </c>
       <c r="T9">
-        <v>0.03424820636934863</v>
+        <v>0.0001853077008493544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H10">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I10">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J10">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>6091.681258685025</v>
+        <v>34.83714547266212</v>
       </c>
       <c r="R10">
-        <v>6091.681258685025</v>
+        <v>313.5343092539591</v>
       </c>
       <c r="S10">
-        <v>0.04074573491703617</v>
+        <v>0.0001918235071603921</v>
       </c>
       <c r="T10">
-        <v>0.04074573491703617</v>
+        <v>0.0002117152666706014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H11">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I11">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J11">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>12020.37465951636</v>
+        <v>69.4863410278715</v>
       </c>
       <c r="R11">
-        <v>12020.37465951636</v>
+        <v>416.918046167229</v>
       </c>
       <c r="S11">
-        <v>0.08040128474907077</v>
+        <v>0.0003826121071305673</v>
       </c>
       <c r="T11">
-        <v>0.08040128474907077</v>
+        <v>0.0002815255387332588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H12">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I12">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J12">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>22491.76245917482</v>
+        <v>9970.27799368386</v>
       </c>
       <c r="R12">
-        <v>22491.76245917482</v>
+        <v>89732.50194315473</v>
       </c>
       <c r="S12">
-        <v>0.1504417831566437</v>
+        <v>0.0548992653147585</v>
       </c>
       <c r="T12">
-        <v>0.1504417831566437</v>
+        <v>0.06059222234121534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H13">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I13">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J13">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>25190.03177501743</v>
+        <v>10669.63354440487</v>
       </c>
       <c r="R13">
-        <v>25190.03177501743</v>
+        <v>96026.7018996438</v>
       </c>
       <c r="S13">
-        <v>0.1684898328836953</v>
+        <v>0.05875012142455847</v>
       </c>
       <c r="T13">
-        <v>0.1684898328836953</v>
+        <v>0.06484240544059283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H14">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I14">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J14">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>12959.59020941897</v>
+        <v>5357.571570857805</v>
       </c>
       <c r="R14">
-        <v>12959.59020941897</v>
+        <v>48218.14413772024</v>
       </c>
       <c r="S14">
-        <v>0.08668346305111654</v>
+        <v>0.02950035528574614</v>
       </c>
       <c r="T14">
-        <v>0.08668346305111654</v>
+        <v>0.03255949012013915</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H15">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I15">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J15">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>15418.26808714261</v>
+        <v>6121.060747243871</v>
       </c>
       <c r="R15">
-        <v>15418.26808714261</v>
+        <v>55089.54672519483</v>
       </c>
       <c r="S15">
-        <v>0.1031289454717996</v>
+        <v>0.03370434988709207</v>
       </c>
       <c r="T15">
-        <v>0.1031289454717996</v>
+        <v>0.0371994315500574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H16">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I16">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J16">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>30424.00794429052</v>
+        <v>12209.09775369157</v>
       </c>
       <c r="R16">
-        <v>30424.00794429052</v>
+        <v>73254.58652214943</v>
       </c>
       <c r="S16">
-        <v>0.2034985926166892</v>
+        <v>0.06722686140329787</v>
       </c>
       <c r="T16">
-        <v>0.2034985926166892</v>
+        <v>0.04946544560716419</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.30794933914735</v>
+        <v>220.0258686666667</v>
       </c>
       <c r="H17">
-        <v>1.30794933914735</v>
+        <v>660.0776060000001</v>
       </c>
       <c r="I17">
-        <v>0.005125266832032504</v>
+        <v>0.744506308846773</v>
       </c>
       <c r="J17">
-        <v>0.005125266832032504</v>
+        <v>0.7462694768413566</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>161.8497424127579</v>
+        <v>30411.7743167788</v>
       </c>
       <c r="R17">
-        <v>161.8497424127579</v>
+        <v>273705.9688510092</v>
       </c>
       <c r="S17">
-        <v>0.001082572514991432</v>
+        <v>0.1674561198762035</v>
       </c>
       <c r="T17">
-        <v>0.001082572514991432</v>
+        <v>0.1848210242844261</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.30794933914735</v>
+        <v>220.0258686666667</v>
       </c>
       <c r="H18">
-        <v>1.30794933914735</v>
+        <v>660.0776060000001</v>
       </c>
       <c r="I18">
-        <v>0.005125266832032504</v>
+        <v>0.744506308846773</v>
       </c>
       <c r="J18">
-        <v>0.005125266832032504</v>
+        <v>0.7462694768413566</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>181.2663708126915</v>
+        <v>32544.97894649799</v>
       </c>
       <c r="R18">
-        <v>181.2663708126915</v>
+        <v>292904.8105184819</v>
       </c>
       <c r="S18">
-        <v>0.001212445494251196</v>
+        <v>0.1792021681821599</v>
       </c>
       <c r="T18">
-        <v>0.001212445494251196</v>
+        <v>0.1977851170915813</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.30794933914735</v>
+        <v>220.0258686666667</v>
       </c>
       <c r="H19">
-        <v>1.30794933914735</v>
+        <v>660.0776060000001</v>
       </c>
       <c r="I19">
-        <v>0.005125266832032504</v>
+        <v>0.744506308846773</v>
       </c>
       <c r="J19">
-        <v>0.005125266832032504</v>
+        <v>0.7462694768413566</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>93.25664633781273</v>
+        <v>16341.89714691359</v>
       </c>
       <c r="R19">
-        <v>93.25664633781273</v>
+        <v>147077.0743222223</v>
       </c>
       <c r="S19">
-        <v>0.0006237704222483485</v>
+        <v>0.08998326303271095</v>
       </c>
       <c r="T19">
-        <v>0.0006237704222483485</v>
+        <v>0.09931436876989232</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.30794933914735</v>
+        <v>220.0258686666667</v>
       </c>
       <c r="H20">
-        <v>1.30794933914735</v>
+        <v>660.0776060000001</v>
       </c>
       <c r="I20">
-        <v>0.005125266832032504</v>
+        <v>0.744506308846773</v>
       </c>
       <c r="J20">
-        <v>0.005125266832032504</v>
+        <v>0.7462694768413566</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>110.949185190996</v>
+        <v>18670.72494291543</v>
       </c>
       <c r="R20">
-        <v>110.949185190996</v>
+        <v>168036.5244862388</v>
       </c>
       <c r="S20">
-        <v>0.000742111397015105</v>
+        <v>0.1028064696801166</v>
       </c>
       <c r="T20">
-        <v>0.000742111397015105</v>
+        <v>0.113467319339489</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>220.0258686666667</v>
+      </c>
+      <c r="H21">
+        <v>660.0776060000001</v>
+      </c>
+      <c r="I21">
+        <v>0.744506308846773</v>
+      </c>
+      <c r="J21">
+        <v>0.7462694768413566</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>37240.7194395158</v>
+      </c>
+      <c r="R21">
+        <v>223444.3166370948</v>
+      </c>
+      <c r="S21">
+        <v>0.2050582880755822</v>
+      </c>
+      <c r="T21">
+        <v>0.1508816473559678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.0947135</v>
+      </c>
+      <c r="H22">
+        <v>4.189427</v>
+      </c>
+      <c r="I22">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J22">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>289.5293840053853</v>
+      </c>
+      <c r="R22">
+        <v>1737.176304032312</v>
+      </c>
+      <c r="S22">
+        <v>0.001594233428496141</v>
+      </c>
+      <c r="T22">
+        <v>0.001173035082945732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.0947135</v>
+      </c>
+      <c r="H23">
+        <v>4.189427</v>
+      </c>
+      <c r="I23">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J23">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>309.838143894455</v>
+      </c>
+      <c r="R23">
+        <v>1859.02886336673</v>
+      </c>
+      <c r="S23">
+        <v>0.001706059397448067</v>
+      </c>
+      <c r="T23">
+        <v>0.001255316499468749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.0947135</v>
+      </c>
+      <c r="H24">
+        <v>4.189427</v>
+      </c>
+      <c r="I24">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J24">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>155.5798542084673</v>
+      </c>
+      <c r="R24">
+        <v>933.479125250804</v>
+      </c>
+      <c r="S24">
+        <v>0.0008566681590255489</v>
+      </c>
+      <c r="T24">
+        <v>0.0006303354245478578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.30794933914735</v>
-      </c>
-      <c r="H21">
-        <v>1.30794933914735</v>
-      </c>
-      <c r="I21">
-        <v>0.005125266832032504</v>
-      </c>
-      <c r="J21">
-        <v>0.005125266832032504</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N21">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O21">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P21">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q21">
-        <v>218.9298352178924</v>
-      </c>
-      <c r="R21">
-        <v>218.9298352178924</v>
-      </c>
-      <c r="S21">
-        <v>0.001464367003526422</v>
-      </c>
-      <c r="T21">
-        <v>0.001464367003526422</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.0947135</v>
+      </c>
+      <c r="H25">
+        <v>4.189427</v>
+      </c>
+      <c r="I25">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J25">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>177.7510064144412</v>
+      </c>
+      <c r="R25">
+        <v>1066.506038486647</v>
+      </c>
+      <c r="S25">
+        <v>0.0009787490045206025</v>
+      </c>
+      <c r="T25">
+        <v>0.0007201623671785004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.0947135</v>
+      </c>
+      <c r="H26">
+        <v>4.189427</v>
+      </c>
+      <c r="I26">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J26">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>354.5430282011393</v>
+      </c>
+      <c r="R26">
+        <v>1418.172112804557</v>
+      </c>
+      <c r="S26">
+        <v>0.001952217559334126</v>
+      </c>
+      <c r="T26">
+        <v>0.0009576262571125162</v>
       </c>
     </row>
   </sheetData>
